--- a/share/data/design/升级.xlsx
+++ b/share/data/design/升级.xlsx
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -478,72 +478,66 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <f>_xlfn.FLOOR.MATH(C2/2)</f>
+      <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B66" si="0">_xlfn.FLOOR.MATH(C3/2)</f>
-        <v>5</v>
+      <c r="B3">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="B4">
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="B5">
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="B6">
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="B7">
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -556,12 +550,11 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="B8">
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>2</v>
@@ -583,12 +576,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="B9">
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>4</v>
@@ -601,12 +593,11 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="B10">
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -614,1092 +605,1001 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="B11">
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="B12">
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="B13">
+        <v>64</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="B14">
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="B15">
+        <v>76</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="B16">
+        <v>82</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="B17">
+        <v>88</v>
       </c>
       <c r="C17">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="B18">
+        <v>94</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="B19">
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>47</v>
+      <c r="B20">
+        <v>106</v>
       </c>
       <c r="C20">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="B21">
+        <v>112</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>52</v>
+      <c r="B22">
+        <v>118</v>
       </c>
       <c r="C22">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="B23">
+        <v>124</v>
       </c>
       <c r="C23">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>57</v>
+      <c r="B24">
+        <v>130</v>
       </c>
       <c r="C24">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="B25">
+        <v>136</v>
       </c>
       <c r="C25">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
+      <c r="B26">
+        <v>142</v>
       </c>
       <c r="C26">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
+      <c r="B27">
+        <v>148</v>
       </c>
       <c r="C27">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
+      <c r="B28">
+        <v>154</v>
       </c>
       <c r="C28">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
+      <c r="B29">
+        <v>160</v>
       </c>
       <c r="C29">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
+      <c r="B30">
+        <v>166</v>
       </c>
       <c r="C30">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
+      <c r="B31">
+        <v>172</v>
       </c>
       <c r="C31">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <f t="shared" si="0"/>
-        <v>77</v>
+      <c r="B32">
+        <v>178</v>
       </c>
       <c r="C32">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+      <c r="B33">
+        <v>184</v>
       </c>
       <c r="C33">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
-        <f t="shared" si="0"/>
-        <v>82</v>
+      <c r="B34">
+        <v>190</v>
       </c>
       <c r="C34">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
-        <f t="shared" si="0"/>
-        <v>85</v>
+      <c r="B35">
+        <v>196</v>
       </c>
       <c r="C35">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
-        <f t="shared" si="0"/>
-        <v>87</v>
+      <c r="B36">
+        <v>202</v>
       </c>
       <c r="C36">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
+      <c r="B37">
+        <v>208</v>
       </c>
       <c r="C37">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
-        <f t="shared" si="0"/>
-        <v>92</v>
+      <c r="B38">
+        <v>214</v>
       </c>
       <c r="C38">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
-        <f t="shared" si="0"/>
-        <v>95</v>
+      <c r="B39">
+        <v>220</v>
       </c>
       <c r="C39">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <f t="shared" si="0"/>
-        <v>97</v>
+      <c r="B40">
+        <v>226</v>
       </c>
       <c r="C40">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+      <c r="B41">
+        <v>232</v>
       </c>
       <c r="C41">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
-        <f t="shared" si="0"/>
-        <v>102</v>
+      <c r="B42">
+        <v>238</v>
       </c>
       <c r="C42">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
-        <f t="shared" si="0"/>
-        <v>105</v>
+      <c r="B43">
+        <v>244</v>
       </c>
       <c r="C43">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
-        <f t="shared" si="0"/>
-        <v>107</v>
+      <c r="B44">
+        <v>250</v>
       </c>
       <c r="C44">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
-        <f t="shared" si="0"/>
-        <v>110</v>
+      <c r="B45">
+        <v>256</v>
       </c>
       <c r="C45">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
-        <f t="shared" si="0"/>
-        <v>112</v>
+      <c r="B46">
+        <v>262</v>
       </c>
       <c r="C46">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
-        <f t="shared" si="0"/>
-        <v>115</v>
+      <c r="B47">
+        <v>268</v>
       </c>
       <c r="C47">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
-        <f t="shared" si="0"/>
-        <v>117</v>
+      <c r="B48">
+        <v>274</v>
       </c>
       <c r="C48">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="B49">
+        <v>280</v>
       </c>
       <c r="C49">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
-        <f t="shared" si="0"/>
-        <v>122</v>
+      <c r="B50">
+        <v>286</v>
       </c>
       <c r="C50">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
+      <c r="B51">
+        <v>292</v>
       </c>
       <c r="C51">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
-        <f t="shared" si="0"/>
-        <v>127</v>
+      <c r="B52">
+        <v>298</v>
       </c>
       <c r="C52">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
+      <c r="B53">
+        <v>304</v>
       </c>
       <c r="C53">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
-        <f t="shared" si="0"/>
-        <v>132</v>
+      <c r="B54">
+        <v>310</v>
       </c>
       <c r="C54">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
-        <f t="shared" si="0"/>
-        <v>135</v>
+      <c r="B55">
+        <v>316</v>
       </c>
       <c r="C55">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
-        <f t="shared" si="0"/>
-        <v>137</v>
+      <c r="B56">
+        <v>322</v>
       </c>
       <c r="C56">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
+      <c r="B57">
+        <v>328</v>
       </c>
       <c r="C57">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
-        <f t="shared" si="0"/>
-        <v>142</v>
+      <c r="B58">
+        <v>334</v>
       </c>
       <c r="C58">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
+      <c r="B59">
+        <v>340</v>
       </c>
       <c r="C59">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
-        <f t="shared" si="0"/>
-        <v>147</v>
+      <c r="B60">
+        <v>346</v>
       </c>
       <c r="C60">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
+      <c r="B61">
+        <v>352</v>
       </c>
       <c r="C61">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
-        <f t="shared" si="0"/>
-        <v>152</v>
+      <c r="B62">
+        <v>358</v>
       </c>
       <c r="C62">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
-        <f t="shared" si="0"/>
-        <v>155</v>
+      <c r="B63">
+        <v>364</v>
       </c>
       <c r="C63">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
-        <f t="shared" si="0"/>
-        <v>157</v>
+      <c r="B64">
+        <v>370</v>
       </c>
       <c r="C64">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
+      <c r="B65">
+        <v>376</v>
       </c>
       <c r="C65">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
-        <f t="shared" si="0"/>
-        <v>162</v>
+      <c r="B66">
+        <v>382</v>
       </c>
       <c r="C66">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
-        <f t="shared" ref="B67:B101" si="1">_xlfn.FLOOR.MATH(C67/2)</f>
-        <v>165</v>
+      <c r="B67">
+        <v>388</v>
       </c>
       <c r="C67">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
-        <f t="shared" si="1"/>
-        <v>167</v>
+      <c r="B68">
+        <v>394</v>
       </c>
       <c r="C68">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
-        <f t="shared" si="1"/>
-        <v>170</v>
+      <c r="B69">
+        <v>400</v>
       </c>
       <c r="C69">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
-        <f t="shared" si="1"/>
-        <v>172</v>
+      <c r="B70">
+        <v>406</v>
       </c>
       <c r="C70">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
-        <f t="shared" si="1"/>
-        <v>175</v>
+      <c r="B71">
+        <v>412</v>
       </c>
       <c r="C71">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
-        <f t="shared" si="1"/>
-        <v>177</v>
+      <c r="B72">
+        <v>418</v>
       </c>
       <c r="C72">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
-        <f t="shared" si="1"/>
-        <v>180</v>
+      <c r="B73">
+        <v>424</v>
       </c>
       <c r="C73">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
-        <f t="shared" si="1"/>
-        <v>182</v>
+      <c r="B74">
+        <v>430</v>
       </c>
       <c r="C74">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
-        <f t="shared" si="1"/>
-        <v>185</v>
+      <c r="B75">
+        <v>436</v>
       </c>
       <c r="C75">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
-        <f t="shared" si="1"/>
-        <v>187</v>
+      <c r="B76">
+        <v>442</v>
       </c>
       <c r="C76">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
-        <f t="shared" si="1"/>
-        <v>190</v>
+      <c r="B77">
+        <v>448</v>
       </c>
       <c r="C77">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
-        <f t="shared" si="1"/>
-        <v>192</v>
+      <c r="B78">
+        <v>454</v>
       </c>
       <c r="C78">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
-        <f t="shared" si="1"/>
-        <v>195</v>
+      <c r="B79">
+        <v>460</v>
       </c>
       <c r="C79">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
-        <f t="shared" si="1"/>
-        <v>197</v>
+      <c r="B80">
+        <v>466</v>
       </c>
       <c r="C80">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
-        <f t="shared" si="1"/>
-        <v>200</v>
+      <c r="B81">
+        <v>472</v>
       </c>
       <c r="C81">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
-        <f t="shared" si="1"/>
-        <v>202</v>
+      <c r="B82">
+        <v>478</v>
       </c>
       <c r="C82">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
-        <f t="shared" si="1"/>
-        <v>205</v>
+      <c r="B83">
+        <v>484</v>
       </c>
       <c r="C83">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
-        <f t="shared" si="1"/>
-        <v>207</v>
+      <c r="B84">
+        <v>490</v>
       </c>
       <c r="C84">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
-        <f t="shared" si="1"/>
-        <v>210</v>
+      <c r="B85">
+        <v>496</v>
       </c>
       <c r="C85">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
-        <f t="shared" si="1"/>
-        <v>212</v>
+      <c r="B86">
+        <v>502</v>
       </c>
       <c r="C86">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
-        <f t="shared" si="1"/>
-        <v>215</v>
+      <c r="B87">
+        <v>508</v>
       </c>
       <c r="C87">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
-        <f t="shared" si="1"/>
-        <v>217</v>
+      <c r="B88">
+        <v>514</v>
       </c>
       <c r="C88">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
-        <f t="shared" si="1"/>
-        <v>220</v>
+      <c r="B89">
+        <v>520</v>
       </c>
       <c r="C89">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
-        <f t="shared" si="1"/>
-        <v>222</v>
+      <c r="B90">
+        <v>526</v>
       </c>
       <c r="C90">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
-        <f t="shared" si="1"/>
-        <v>225</v>
+      <c r="B91">
+        <v>532</v>
       </c>
       <c r="C91">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
-        <f t="shared" si="1"/>
-        <v>227</v>
+      <c r="B92">
+        <v>538</v>
       </c>
       <c r="C92">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
-        <f t="shared" si="1"/>
-        <v>230</v>
+      <c r="B93">
+        <v>544</v>
       </c>
       <c r="C93">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
-        <f t="shared" si="1"/>
-        <v>232</v>
+      <c r="B94">
+        <v>550</v>
       </c>
       <c r="C94">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
-        <f t="shared" si="1"/>
-        <v>235</v>
+      <c r="B95">
+        <v>556</v>
       </c>
       <c r="C95">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
-        <f t="shared" si="1"/>
-        <v>237</v>
+      <c r="B96">
+        <v>562</v>
       </c>
       <c r="C96">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="3">
-        <f t="shared" si="1"/>
-        <v>240</v>
+      <c r="B97">
+        <v>568</v>
       </c>
       <c r="C97">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="3">
-        <f t="shared" si="1"/>
-        <v>242</v>
+      <c r="B98">
+        <v>574</v>
       </c>
       <c r="C98">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="3">
-        <f t="shared" si="1"/>
-        <v>245</v>
+      <c r="B99">
+        <v>580</v>
       </c>
       <c r="C99">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="3">
-        <f t="shared" si="1"/>
-        <v>247</v>
+      <c r="B100">
+        <v>586</v>
       </c>
       <c r="C100">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="3">
-        <f t="shared" si="1"/>
-        <v>250</v>
+      <c r="B101">
+        <v>592</v>
       </c>
       <c r="C101">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/升级.xlsx
+++ b/share/data/design/升级.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,27 +32,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火球技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90*15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,6 +140,1195 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>经验!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>时间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>经验!$C$2:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1456</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1492</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1636</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1673</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2229</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2271</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2314</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2488</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2532</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2577</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2668</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2713</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3142</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3392</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3495</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3546</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3704</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3757</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3811</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3865</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA13-4EEF-B304-6C512845E330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="239809791"/>
+        <c:axId val="239814367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="239809791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239814367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="239814367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239809791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,208 +1632,212 @@
     <col min="12" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <f>_xlfn.FLOOR.MATH(C2/7)</f>
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+        <f>_xlfn.FLOOR.MATH(A2*A2*0.1762 + 14.296*A2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <f t="shared" ref="B3:B66" si="0">_xlfn.FLOOR.MATH(C3/7)</f>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+        <f>_xlfn.FLOOR.MATH(A3*A3*0.1762 + 14.296*A3)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <f>_xlfn.FLOOR.MATH(A4*A4*0.1762 + 14.296*A4)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" ref="C5:C68" si="1">_xlfn.FLOOR.MATH(A5*A5*0.1762 + 14.296*A5)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>142</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -672,10 +1845,12 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -683,10 +1858,12 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -694,10 +1871,12 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -705,10 +1884,12 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -716,10 +1897,12 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -727,10 +1910,12 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>118</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="C22">
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -738,10 +1923,12 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>124</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="C23">
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -749,10 +1936,12 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="C24">
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -760,10 +1949,12 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>136</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -771,10 +1962,12 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>142</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>130</v>
+        <f t="shared" si="1"/>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -782,10 +1975,12 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>148</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="C27">
-        <v>135</v>
+        <f t="shared" si="1"/>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -793,10 +1988,12 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>154</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="C28">
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -804,10 +2001,12 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="C29">
-        <v>145</v>
+        <f t="shared" si="1"/>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -815,10 +2014,12 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>166</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="C30">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -826,10 +2027,12 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>172</v>
+        <f t="shared" si="0"/>
+        <v>83</v>
       </c>
       <c r="C31">
-        <v>155</v>
+        <f t="shared" si="1"/>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -837,10 +2040,12 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>178</v>
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
       <c r="C32">
-        <v>160</v>
+        <f t="shared" si="1"/>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -848,10 +2053,12 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>184</v>
+        <f t="shared" si="0"/>
+        <v>91</v>
       </c>
       <c r="C33">
-        <v>165</v>
+        <f t="shared" si="1"/>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -859,10 +2066,12 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>94</v>
       </c>
       <c r="C34">
-        <v>170</v>
+        <f t="shared" si="1"/>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -870,10 +2079,12 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>196</v>
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="C35">
-        <v>175</v>
+        <f t="shared" si="1"/>
+        <v>689</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -881,10 +2092,12 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>202</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="C36">
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -892,10 +2105,12 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>208</v>
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="C37">
-        <v>185</v>
+        <f t="shared" si="1"/>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -903,10 +2118,12 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>214</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="C38">
-        <v>190</v>
+        <f t="shared" si="1"/>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -914,10 +2131,12 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>220</v>
+        <f t="shared" si="0"/>
+        <v>113</v>
       </c>
       <c r="C39">
-        <v>195</v>
+        <f t="shared" si="1"/>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -925,10 +2144,12 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>226</v>
+        <f t="shared" si="0"/>
+        <v>117</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>825</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -936,10 +2157,12 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>232</v>
+        <f t="shared" si="0"/>
+        <v>121</v>
       </c>
       <c r="C41">
-        <v>205</v>
+        <f t="shared" si="1"/>
+        <v>853</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -947,10 +2170,12 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>238</v>
+        <f t="shared" si="0"/>
+        <v>126</v>
       </c>
       <c r="C42">
-        <v>210</v>
+        <f t="shared" si="1"/>
+        <v>882</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -958,10 +2183,12 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>244</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="C43">
-        <v>215</v>
+        <f t="shared" si="1"/>
+        <v>911</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -969,10 +2196,12 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>134</v>
       </c>
       <c r="C44">
-        <v>220</v>
+        <f t="shared" si="1"/>
+        <v>940</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -980,10 +2209,12 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>256</v>
+        <f t="shared" si="0"/>
+        <v>138</v>
       </c>
       <c r="C45">
-        <v>225</v>
+        <f t="shared" si="1"/>
+        <v>970</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -991,10 +2222,12 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>262</v>
+        <f t="shared" si="0"/>
+        <v>142</v>
       </c>
       <c r="C46">
-        <v>230</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1002,10 +2235,12 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>268</v>
+        <f t="shared" si="0"/>
+        <v>147</v>
       </c>
       <c r="C47">
-        <v>235</v>
+        <f t="shared" si="1"/>
+        <v>1030</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1013,10 +2248,12 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>274</v>
+        <f t="shared" si="0"/>
+        <v>151</v>
       </c>
       <c r="C48">
-        <v>240</v>
+        <f t="shared" si="1"/>
+        <v>1061</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1024,10 +2261,12 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>156</v>
       </c>
       <c r="C49">
-        <v>245</v>
+        <f t="shared" si="1"/>
+        <v>1092</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1035,10 +2274,12 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>286</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="C50">
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>1123</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1046,10 +2287,12 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>292</v>
+        <f t="shared" si="0"/>
+        <v>165</v>
       </c>
       <c r="C51">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1155</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1057,10 +2300,12 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>298</v>
+        <f t="shared" si="0"/>
+        <v>169</v>
       </c>
       <c r="C52">
-        <v>260</v>
+        <f t="shared" si="1"/>
+        <v>1187</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1068,10 +2313,12 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>304</v>
+        <f t="shared" si="0"/>
+        <v>174</v>
       </c>
       <c r="C53">
-        <v>265</v>
+        <f t="shared" si="1"/>
+        <v>1219</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1079,10 +2326,12 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>310</v>
+        <f t="shared" si="0"/>
+        <v>178</v>
       </c>
       <c r="C54">
-        <v>270</v>
+        <f t="shared" si="1"/>
+        <v>1252</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -1090,10 +2339,12 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>316</v>
+        <f t="shared" si="0"/>
+        <v>183</v>
       </c>
       <c r="C55">
-        <v>275</v>
+        <f t="shared" si="1"/>
+        <v>1285</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -1101,10 +2352,12 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>322</v>
+        <f t="shared" si="0"/>
+        <v>188</v>
       </c>
       <c r="C56">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>1319</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -1112,10 +2365,12 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>328</v>
+        <f t="shared" si="0"/>
+        <v>193</v>
       </c>
       <c r="C57">
-        <v>285</v>
+        <f t="shared" si="1"/>
+        <v>1353</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -1123,10 +2378,12 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>334</v>
+        <f t="shared" si="0"/>
+        <v>198</v>
       </c>
       <c r="C58">
-        <v>290</v>
+        <f t="shared" si="1"/>
+        <v>1387</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1134,10 +2391,12 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>340</v>
+        <f t="shared" si="0"/>
+        <v>203</v>
       </c>
       <c r="C59">
-        <v>295</v>
+        <f t="shared" si="1"/>
+        <v>1421</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -1145,10 +2404,12 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>346</v>
+        <f t="shared" si="0"/>
+        <v>208</v>
       </c>
       <c r="C60">
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>1456</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1156,10 +2417,12 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>352</v>
+        <f t="shared" si="0"/>
+        <v>213</v>
       </c>
       <c r="C61">
-        <v>305</v>
+        <f t="shared" si="1"/>
+        <v>1492</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1167,10 +2430,12 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>358</v>
+        <f t="shared" si="0"/>
+        <v>218</v>
       </c>
       <c r="C62">
-        <v>310</v>
+        <f t="shared" si="1"/>
+        <v>1527</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1178,10 +2443,12 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>364</v>
+        <f t="shared" si="0"/>
+        <v>223</v>
       </c>
       <c r="C63">
-        <v>315</v>
+        <f t="shared" si="1"/>
+        <v>1563</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -1189,10 +2456,12 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>370</v>
+        <f t="shared" si="0"/>
+        <v>228</v>
       </c>
       <c r="C64">
-        <v>320</v>
+        <f t="shared" si="1"/>
+        <v>1599</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1200,10 +2469,12 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>376</v>
+        <f t="shared" si="0"/>
+        <v>233</v>
       </c>
       <c r="C65">
-        <v>325</v>
+        <f t="shared" si="1"/>
+        <v>1636</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -1211,10 +2482,12 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>382</v>
+        <f t="shared" si="0"/>
+        <v>239</v>
       </c>
       <c r="C66">
-        <v>330</v>
+        <f t="shared" si="1"/>
+        <v>1673</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -1222,10 +2495,12 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>388</v>
+        <f t="shared" ref="B67:B115" si="2">_xlfn.FLOOR.MATH(C67/7)</f>
+        <v>244</v>
       </c>
       <c r="C67">
-        <v>335</v>
+        <f t="shared" si="1"/>
+        <v>1711</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1233,10 +2508,12 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>394</v>
+        <f t="shared" si="2"/>
+        <v>249</v>
       </c>
       <c r="C68">
-        <v>340</v>
+        <f t="shared" si="1"/>
+        <v>1748</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1244,10 +2521,12 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>255</v>
       </c>
       <c r="C69">
-        <v>345</v>
+        <f t="shared" ref="C69:C115" si="3">_xlfn.FLOOR.MATH(A69*A69*0.1762 + 14.296*A69)</f>
+        <v>1786</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -1255,10 +2534,12 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>406</v>
+        <f t="shared" si="2"/>
+        <v>260</v>
       </c>
       <c r="C70">
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>1825</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -1266,10 +2547,12 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>412</v>
+        <f t="shared" si="2"/>
+        <v>266</v>
       </c>
       <c r="C71">
-        <v>355</v>
+        <f t="shared" si="3"/>
+        <v>1864</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -1277,10 +2560,12 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>418</v>
+        <f t="shared" si="2"/>
+        <v>271</v>
       </c>
       <c r="C72">
-        <v>360</v>
+        <f t="shared" si="3"/>
+        <v>1903</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -1288,10 +2573,12 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>424</v>
+        <f t="shared" si="2"/>
+        <v>277</v>
       </c>
       <c r="C73">
-        <v>365</v>
+        <f t="shared" si="3"/>
+        <v>1942</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -1299,10 +2586,12 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>430</v>
+        <f t="shared" si="2"/>
+        <v>283</v>
       </c>
       <c r="C74">
-        <v>370</v>
+        <f t="shared" si="3"/>
+        <v>1982</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -1310,10 +2599,12 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>436</v>
+        <f t="shared" si="2"/>
+        <v>288</v>
       </c>
       <c r="C75">
-        <v>375</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -1321,10 +2612,12 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>442</v>
+        <f t="shared" si="2"/>
+        <v>294</v>
       </c>
       <c r="C76">
-        <v>380</v>
+        <f t="shared" si="3"/>
+        <v>2063</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -1332,10 +2625,12 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>448</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="C77">
-        <v>385</v>
+        <f t="shared" si="3"/>
+        <v>2104</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -1343,10 +2638,12 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>454</v>
+        <f t="shared" si="2"/>
+        <v>306</v>
       </c>
       <c r="C78">
-        <v>390</v>
+        <f t="shared" si="3"/>
+        <v>2145</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -1354,10 +2651,12 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>460</v>
+        <f t="shared" si="2"/>
+        <v>312</v>
       </c>
       <c r="C79">
-        <v>395</v>
+        <f t="shared" si="3"/>
+        <v>2187</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -1365,10 +2664,12 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>466</v>
+        <f t="shared" si="2"/>
+        <v>318</v>
       </c>
       <c r="C80">
-        <v>400</v>
+        <f t="shared" si="3"/>
+        <v>2229</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -1376,10 +2677,12 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>472</v>
+        <f t="shared" si="2"/>
+        <v>324</v>
       </c>
       <c r="C81">
-        <v>405</v>
+        <f t="shared" si="3"/>
+        <v>2271</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -1387,10 +2690,12 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>478</v>
+        <f t="shared" si="2"/>
+        <v>330</v>
       </c>
       <c r="C82">
-        <v>410</v>
+        <f t="shared" si="3"/>
+        <v>2314</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -1398,10 +2703,12 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>484</v>
+        <f t="shared" si="2"/>
+        <v>336</v>
       </c>
       <c r="C83">
-        <v>415</v>
+        <f t="shared" si="3"/>
+        <v>2357</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -1409,10 +2716,12 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>490</v>
+        <f t="shared" si="2"/>
+        <v>342</v>
       </c>
       <c r="C84">
-        <v>420</v>
+        <f t="shared" si="3"/>
+        <v>2400</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -1420,10 +2729,12 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>496</v>
+        <f t="shared" si="2"/>
+        <v>349</v>
       </c>
       <c r="C85">
-        <v>425</v>
+        <f t="shared" si="3"/>
+        <v>2444</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -1431,10 +2742,12 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>502</v>
+        <f t="shared" si="2"/>
+        <v>355</v>
       </c>
       <c r="C86">
-        <v>430</v>
+        <f t="shared" si="3"/>
+        <v>2488</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -1442,10 +2755,12 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>508</v>
+        <f t="shared" si="2"/>
+        <v>361</v>
       </c>
       <c r="C87">
-        <v>435</v>
+        <f t="shared" si="3"/>
+        <v>2532</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -1453,10 +2768,12 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>514</v>
+        <f t="shared" si="2"/>
+        <v>368</v>
       </c>
       <c r="C88">
-        <v>440</v>
+        <f t="shared" si="3"/>
+        <v>2577</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -1464,10 +2781,12 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>520</v>
+        <f t="shared" si="2"/>
+        <v>374</v>
       </c>
       <c r="C89">
-        <v>445</v>
+        <f t="shared" si="3"/>
+        <v>2622</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -1475,10 +2794,12 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>526</v>
+        <f t="shared" si="2"/>
+        <v>381</v>
       </c>
       <c r="C90">
-        <v>450</v>
+        <f t="shared" si="3"/>
+        <v>2668</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -1486,10 +2807,12 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>532</v>
+        <f t="shared" si="2"/>
+        <v>387</v>
       </c>
       <c r="C91">
-        <v>455</v>
+        <f t="shared" si="3"/>
+        <v>2713</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -1497,10 +2820,12 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>538</v>
+        <f t="shared" si="2"/>
+        <v>394</v>
       </c>
       <c r="C92">
-        <v>460</v>
+        <f t="shared" si="3"/>
+        <v>2760</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -1508,10 +2833,12 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>544</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="C93">
-        <v>465</v>
+        <f t="shared" si="3"/>
+        <v>2806</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -1519,10 +2846,12 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>550</v>
+        <f t="shared" si="2"/>
+        <v>407</v>
       </c>
       <c r="C94">
-        <v>470</v>
+        <f t="shared" si="3"/>
+        <v>2853</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -1530,10 +2859,12 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>556</v>
+        <f t="shared" si="2"/>
+        <v>414</v>
       </c>
       <c r="C95">
-        <v>475</v>
+        <f t="shared" si="3"/>
+        <v>2900</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -1541,10 +2872,12 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>562</v>
+        <f t="shared" si="2"/>
+        <v>421</v>
       </c>
       <c r="C96">
-        <v>480</v>
+        <f t="shared" si="3"/>
+        <v>2948</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -1552,10 +2885,12 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>568</v>
+        <f t="shared" si="2"/>
+        <v>428</v>
       </c>
       <c r="C97">
-        <v>485</v>
+        <f t="shared" si="3"/>
+        <v>2996</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -1563,10 +2898,12 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>574</v>
+        <f t="shared" si="2"/>
+        <v>434</v>
       </c>
       <c r="C98">
-        <v>490</v>
+        <f t="shared" si="3"/>
+        <v>3044</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -1574,10 +2911,12 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>580</v>
+        <f t="shared" si="2"/>
+        <v>441</v>
       </c>
       <c r="C99">
-        <v>495</v>
+        <f t="shared" si="3"/>
+        <v>3093</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -1585,10 +2924,12 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>586</v>
+        <f t="shared" si="2"/>
+        <v>448</v>
       </c>
       <c r="C100">
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>3142</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -1596,15 +2937,200 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>592</v>
+        <f t="shared" si="2"/>
+        <v>455</v>
       </c>
       <c r="C101">
-        <v>505</v>
+        <f t="shared" si="3"/>
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>463</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>477</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>491</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>499</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>506</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>514</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>521</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>536</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>552</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>559</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>3919</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/share/data/design/升级.xlsx
+++ b/share/data/design/升级.xlsx
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1655,6 +1655,10 @@
         <f>_xlfn.FLOOR.MATH(A2*A2*0.1762 + 14.296*A2)</f>
         <v>14</v>
       </c>
+      <c r="D2">
+        <f>C2/60</f>
+        <v>0.23333333333333334</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -1668,6 +1672,10 @@
         <f>_xlfn.FLOOR.MATH(A3*A3*0.1762 + 14.296*A3)</f>
         <v>29</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D43" si="1">C3/60</f>
+        <v>0.48333333333333334</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -1681,6 +1689,10 @@
         <f>_xlfn.FLOOR.MATH(A4*A4*0.1762 + 14.296*A4)</f>
         <v>44</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333328</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -1691,8 +1703,12 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C68" si="1">_xlfn.FLOOR.MATH(A5*A5*0.1762 + 14.296*A5)</f>
+        <f t="shared" ref="C5:C68" si="2">_xlfn.FLOOR.MATH(A5*A5*0.1762 + 14.296*A5)</f>
         <v>60</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -1704,8 +1720,12 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -1717,8 +1737,12 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.5333333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -1730,8 +1754,12 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1743,8 +1771,12 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333335</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1757,8 +1789,12 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>142</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2.3666666666666667</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1771,8 +1807,12 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1784,8 +1824,12 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -1797,8 +1841,12 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>196</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>3.2666666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -1810,8 +1858,12 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>215</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3.5833333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -1823,8 +1875,12 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>234</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1836,11 +1892,15 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>4.2333333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1849,11 +1909,15 @@
         <v>39</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>273</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1862,11 +1926,15 @@
         <v>41</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>293</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>4.8833333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1875,11 +1943,15 @@
         <v>44</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>314</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>5.2333333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1888,11 +1960,15 @@
         <v>47</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>335</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1901,11 +1977,15 @@
         <v>50</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>356</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>5.9333333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1914,11 +1994,15 @@
         <v>53</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>377</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>6.2833333333333332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1927,11 +2011,15 @@
         <v>57</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>399</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1940,11 +2028,15 @@
         <v>60</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>422</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>7.0333333333333332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1953,11 +2045,15 @@
         <v>63</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>444</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1966,11 +2062,15 @@
         <v>66</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>467</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>7.7833333333333332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1979,11 +2079,15 @@
         <v>70</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>490</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1992,11 +2096,15 @@
         <v>73</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>514</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>8.5666666666666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2005,11 +2113,15 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>538</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>8.9666666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2018,11 +2130,15 @@
         <v>80</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>562</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>9.3666666666666671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2031,11 +2147,15 @@
         <v>83</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>587</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>9.7833333333333332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2044,11 +2164,15 @@
         <v>87</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>612</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2057,11 +2181,15 @@
         <v>91</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>637</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>10.616666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2070,11 +2198,15 @@
         <v>94</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>663</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2083,11 +2215,15 @@
         <v>98</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>689</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>11.483333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2096,11 +2232,15 @@
         <v>102</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>716</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>11.933333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2109,11 +2249,15 @@
         <v>106</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>743</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>12.383333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2122,11 +2266,15 @@
         <v>110</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>770</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2135,11 +2283,15 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>797</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>13.283333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2148,11 +2300,15 @@
         <v>117</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>825</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2161,11 +2317,15 @@
         <v>121</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>853</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>14.216666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2174,11 +2334,15 @@
         <v>126</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>882</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2187,11 +2351,15 @@
         <v>130</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>911</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>15.183333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2200,11 +2368,11 @@
         <v>134</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>940</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2213,11 +2381,11 @@
         <v>138</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>970</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2226,11 +2394,11 @@
         <v>142</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2239,11 +2407,11 @@
         <v>147</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1030</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2252,7 +2420,7 @@
         <v>151</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1061</v>
       </c>
     </row>
@@ -2265,7 +2433,7 @@
         <v>156</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1092</v>
       </c>
     </row>
@@ -2278,7 +2446,7 @@
         <v>160</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1123</v>
       </c>
     </row>
@@ -2291,7 +2459,7 @@
         <v>165</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1155</v>
       </c>
     </row>
@@ -2304,7 +2472,7 @@
         <v>169</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1187</v>
       </c>
     </row>
@@ -2317,7 +2485,7 @@
         <v>174</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1219</v>
       </c>
     </row>
@@ -2330,7 +2498,7 @@
         <v>178</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1252</v>
       </c>
     </row>
@@ -2343,7 +2511,7 @@
         <v>183</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1285</v>
       </c>
     </row>
@@ -2356,7 +2524,7 @@
         <v>188</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1319</v>
       </c>
     </row>
@@ -2369,7 +2537,7 @@
         <v>193</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1353</v>
       </c>
     </row>
@@ -2382,7 +2550,7 @@
         <v>198</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1387</v>
       </c>
     </row>
@@ -2395,7 +2563,7 @@
         <v>203</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1421</v>
       </c>
     </row>
@@ -2408,7 +2576,7 @@
         <v>208</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1456</v>
       </c>
     </row>
@@ -2421,7 +2589,7 @@
         <v>213</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1492</v>
       </c>
     </row>
@@ -2434,7 +2602,7 @@
         <v>218</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1527</v>
       </c>
     </row>
@@ -2447,7 +2615,7 @@
         <v>223</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1563</v>
       </c>
     </row>
@@ -2460,7 +2628,7 @@
         <v>228</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1599</v>
       </c>
     </row>
@@ -2473,7 +2641,7 @@
         <v>233</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1636</v>
       </c>
     </row>
@@ -2486,7 +2654,7 @@
         <v>239</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1673</v>
       </c>
     </row>
@@ -2495,11 +2663,11 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B115" si="2">_xlfn.FLOOR.MATH(C67/7)</f>
+        <f t="shared" ref="B67:B115" si="3">_xlfn.FLOOR.MATH(C67/7)</f>
         <v>244</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1711</v>
       </c>
     </row>
@@ -2508,11 +2676,11 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1748</v>
       </c>
     </row>
@@ -2521,11 +2689,11 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C115" si="3">_xlfn.FLOOR.MATH(A69*A69*0.1762 + 14.296*A69)</f>
+        <f t="shared" ref="C69:C115" si="4">_xlfn.FLOOR.MATH(A69*A69*0.1762 + 14.296*A69)</f>
         <v>1786</v>
       </c>
     </row>
@@ -2534,11 +2702,11 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1825</v>
       </c>
     </row>
@@ -2547,11 +2715,11 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>266</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1864</v>
       </c>
     </row>
@@ -2560,11 +2728,11 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>271</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1903</v>
       </c>
     </row>
@@ -2573,11 +2741,11 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>277</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1942</v>
       </c>
     </row>
@@ -2586,11 +2754,11 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>283</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1982</v>
       </c>
     </row>
@@ -2599,11 +2767,11 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>288</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
     </row>
@@ -2612,11 +2780,11 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2063</v>
       </c>
     </row>
@@ -2625,11 +2793,11 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2104</v>
       </c>
     </row>
@@ -2638,11 +2806,11 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2145</v>
       </c>
     </row>
@@ -2651,11 +2819,11 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>312</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2187</v>
       </c>
     </row>
@@ -2664,11 +2832,11 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>318</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2229</v>
       </c>
     </row>
@@ -2677,11 +2845,11 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>324</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2271</v>
       </c>
     </row>
@@ -2690,11 +2858,11 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2314</v>
       </c>
     </row>
@@ -2703,11 +2871,11 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>336</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2357</v>
       </c>
     </row>
@@ -2716,11 +2884,11 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>342</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
     </row>
@@ -2729,11 +2897,11 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>349</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2444</v>
       </c>
     </row>
@@ -2742,11 +2910,11 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>355</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2488</v>
       </c>
     </row>
@@ -2755,11 +2923,11 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>361</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2532</v>
       </c>
     </row>
@@ -2768,11 +2936,11 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>368</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2577</v>
       </c>
     </row>
@@ -2781,11 +2949,11 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>374</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2622</v>
       </c>
     </row>
@@ -2794,11 +2962,11 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>381</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2668</v>
       </c>
     </row>
@@ -2807,11 +2975,11 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>387</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2713</v>
       </c>
     </row>
@@ -2820,11 +2988,11 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>394</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2760</v>
       </c>
     </row>
@@ -2833,11 +3001,11 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2806</v>
       </c>
     </row>
@@ -2846,11 +3014,11 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>407</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2853</v>
       </c>
     </row>
@@ -2859,11 +3027,11 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>414</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2900</v>
       </c>
     </row>
@@ -2872,11 +3040,11 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>421</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2948</v>
       </c>
     </row>
@@ -2885,11 +3053,11 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>428</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2996</v>
       </c>
     </row>
@@ -2898,11 +3066,11 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>434</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3044</v>
       </c>
     </row>
@@ -2911,11 +3079,11 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>441</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3093</v>
       </c>
     </row>
@@ -2924,11 +3092,11 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>448</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3142</v>
       </c>
     </row>
@@ -2937,11 +3105,11 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>455</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3191</v>
       </c>
     </row>
@@ -2950,11 +3118,11 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>463</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3241</v>
       </c>
     </row>
@@ -2963,11 +3131,11 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>470</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3291</v>
       </c>
     </row>
@@ -2976,11 +3144,11 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>477</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3341</v>
       </c>
     </row>
@@ -2989,11 +3157,11 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>484</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3392</v>
       </c>
     </row>
@@ -3002,11 +3170,11 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>491</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3443</v>
       </c>
     </row>
@@ -3015,11 +3183,11 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>499</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3495</v>
       </c>
     </row>
@@ -3028,11 +3196,11 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>506</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3546</v>
       </c>
     </row>
@@ -3041,11 +3209,11 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>514</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3599</v>
       </c>
     </row>
@@ -3054,11 +3222,11 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>521</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3651</v>
       </c>
     </row>
@@ -3067,11 +3235,11 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>529</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3704</v>
       </c>
     </row>
@@ -3080,11 +3248,11 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>536</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3757</v>
       </c>
     </row>
@@ -3093,11 +3261,11 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>544</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3811</v>
       </c>
     </row>
@@ -3106,11 +3274,11 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>552</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3865</v>
       </c>
     </row>
@@ -3119,11 +3287,11 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>559</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3919</v>
       </c>
     </row>

--- a/share/data/design/升级.xlsx
+++ b/share/data/design/升级.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="经验" sheetId="12" r:id="rId1"/>
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/升级.xlsx
+++ b/share/data/design/升级.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="经验" sheetId="12" r:id="rId1"/>
@@ -1621,7 +1621,7 @@
   <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1655,10 +1655,6 @@
         <f>_xlfn.FLOOR.MATH(A2*A2*0.1762 + 14.296*A2)</f>
         <v>14</v>
       </c>
-      <c r="D2">
-        <f>C2/60</f>
-        <v>0.23333333333333334</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -1672,10 +1668,6 @@
         <f>_xlfn.FLOOR.MATH(A3*A3*0.1762 + 14.296*A3)</f>
         <v>29</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D43" si="1">C3/60</f>
-        <v>0.48333333333333334</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -1689,10 +1681,6 @@
         <f>_xlfn.FLOOR.MATH(A4*A4*0.1762 + 14.296*A4)</f>
         <v>44</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>0.73333333333333328</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -1703,12 +1691,8 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C68" si="2">_xlfn.FLOOR.MATH(A5*A5*0.1762 + 14.296*A5)</f>
+        <f t="shared" ref="C5:C68" si="1">_xlfn.FLOOR.MATH(A5*A5*0.1762 + 14.296*A5)</f>
         <v>60</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -1720,12 +1704,8 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -1737,12 +1717,8 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>1.5333333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -1754,12 +1730,8 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>108</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1771,12 +1743,8 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>2.0833333333333335</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1789,12 +1757,8 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>142</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>2.3666666666666667</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1807,12 +1771,8 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1824,12 +1784,8 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>178</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -1841,12 +1797,8 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>196</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>3.2666666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -1858,12 +1810,8 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>215</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>3.5833333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -1875,12 +1823,8 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>234</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1892,15 +1836,11 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>4.2333333333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1909,15 +1849,11 @@
         <v>39</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1926,15 +1862,11 @@
         <v>41</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>4.8833333333333337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1943,15 +1875,11 @@
         <v>44</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>5.2333333333333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1960,15 +1888,11 @@
         <v>47</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>5.583333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1977,15 +1901,11 @@
         <v>50</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>356</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>5.9333333333333336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1994,15 +1914,11 @@
         <v>53</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>377</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>6.2833333333333332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2011,15 +1927,11 @@
         <v>57</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>399</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2028,15 +1940,11 @@
         <v>60</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>422</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>7.0333333333333332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2045,15 +1953,11 @@
         <v>63</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>444</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2062,15 +1966,11 @@
         <v>66</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>467</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>7.7833333333333332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2079,15 +1979,11 @@
         <v>70</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>8.1666666666666661</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2096,15 +1992,11 @@
         <v>73</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>514</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>8.5666666666666664</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2113,15 +2005,11 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>538</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>8.9666666666666668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2130,15 +2018,11 @@
         <v>80</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>562</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>9.3666666666666671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2147,15 +2031,11 @@
         <v>83</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>587</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>9.7833333333333332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2164,15 +2044,11 @@
         <v>87</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2181,15 +2057,11 @@
         <v>91</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>637</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>10.616666666666667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2198,15 +2070,11 @@
         <v>94</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>663</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2215,15 +2083,11 @@
         <v>98</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>689</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>11.483333333333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2232,15 +2096,11 @@
         <v>102</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>716</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>11.933333333333334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2249,15 +2109,11 @@
         <v>106</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>743</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>12.383333333333333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2266,15 +2122,11 @@
         <v>110</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>12.833333333333334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2283,15 +2135,11 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>797</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>13.283333333333333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2300,15 +2148,11 @@
         <v>117</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>825</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>13.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2317,15 +2161,11 @@
         <v>121</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>853</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>14.216666666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2334,15 +2174,11 @@
         <v>126</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>882</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2351,15 +2187,11 @@
         <v>130</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>911</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>15.183333333333334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2368,11 +2200,11 @@
         <v>134</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>940</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2381,11 +2213,11 @@
         <v>138</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>970</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2394,11 +2226,11 @@
         <v>142</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2407,11 +2239,11 @@
         <v>147</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1030</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2420,7 +2252,7 @@
         <v>151</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1061</v>
       </c>
     </row>
@@ -2433,7 +2265,7 @@
         <v>156</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1092</v>
       </c>
     </row>
@@ -2446,7 +2278,7 @@
         <v>160</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1123</v>
       </c>
     </row>
@@ -2459,7 +2291,7 @@
         <v>165</v>
       </c>
       <c r="C51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1155</v>
       </c>
     </row>
@@ -2472,7 +2304,7 @@
         <v>169</v>
       </c>
       <c r="C52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1187</v>
       </c>
     </row>
@@ -2485,7 +2317,7 @@
         <v>174</v>
       </c>
       <c r="C53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1219</v>
       </c>
     </row>
@@ -2498,7 +2330,7 @@
         <v>178</v>
       </c>
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1252</v>
       </c>
     </row>
@@ -2511,7 +2343,7 @@
         <v>183</v>
       </c>
       <c r="C55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1285</v>
       </c>
     </row>
@@ -2524,7 +2356,7 @@
         <v>188</v>
       </c>
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1319</v>
       </c>
     </row>
@@ -2537,7 +2369,7 @@
         <v>193</v>
       </c>
       <c r="C57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1353</v>
       </c>
     </row>
@@ -2550,7 +2382,7 @@
         <v>198</v>
       </c>
       <c r="C58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1387</v>
       </c>
     </row>
@@ -2563,7 +2395,7 @@
         <v>203</v>
       </c>
       <c r="C59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1421</v>
       </c>
     </row>
@@ -2576,7 +2408,7 @@
         <v>208</v>
       </c>
       <c r="C60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1456</v>
       </c>
     </row>
@@ -2589,7 +2421,7 @@
         <v>213</v>
       </c>
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1492</v>
       </c>
     </row>
@@ -2602,7 +2434,7 @@
         <v>218</v>
       </c>
       <c r="C62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1527</v>
       </c>
     </row>
@@ -2615,7 +2447,7 @@
         <v>223</v>
       </c>
       <c r="C63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1563</v>
       </c>
     </row>
@@ -2628,7 +2460,7 @@
         <v>228</v>
       </c>
       <c r="C64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1599</v>
       </c>
     </row>
@@ -2641,7 +2473,7 @@
         <v>233</v>
       </c>
       <c r="C65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1636</v>
       </c>
     </row>
@@ -2654,7 +2486,7 @@
         <v>239</v>
       </c>
       <c r="C66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1673</v>
       </c>
     </row>
@@ -2663,11 +2495,11 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B115" si="3">_xlfn.FLOOR.MATH(C67/7)</f>
+        <f t="shared" ref="B67:B115" si="2">_xlfn.FLOOR.MATH(C67/7)</f>
         <v>244</v>
       </c>
       <c r="C67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1711</v>
       </c>
     </row>
@@ -2676,11 +2508,11 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>249</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1748</v>
       </c>
     </row>
@@ -2689,11 +2521,11 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C115" si="4">_xlfn.FLOOR.MATH(A69*A69*0.1762 + 14.296*A69)</f>
+        <f t="shared" ref="C69:C115" si="3">_xlfn.FLOOR.MATH(A69*A69*0.1762 + 14.296*A69)</f>
         <v>1786</v>
       </c>
     </row>
@@ -2702,11 +2534,11 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1825</v>
       </c>
     </row>
@@ -2715,11 +2547,11 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>266</v>
       </c>
       <c r="C71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1864</v>
       </c>
     </row>
@@ -2728,11 +2560,11 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>271</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1903</v>
       </c>
     </row>
@@ -2741,11 +2573,11 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>277</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1942</v>
       </c>
     </row>
@@ -2754,11 +2586,11 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>283</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1982</v>
       </c>
     </row>
@@ -2767,11 +2599,11 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2022</v>
       </c>
     </row>
@@ -2780,11 +2612,11 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>294</v>
       </c>
       <c r="C76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2063</v>
       </c>
     </row>
@@ -2793,11 +2625,11 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="C77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2104</v>
       </c>
     </row>
@@ -2806,11 +2638,11 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="C78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2145</v>
       </c>
     </row>
@@ -2819,11 +2651,11 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>312</v>
       </c>
       <c r="C79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2187</v>
       </c>
     </row>
@@ -2832,11 +2664,11 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>318</v>
       </c>
       <c r="C80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2229</v>
       </c>
     </row>
@@ -2845,11 +2677,11 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="C81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2271</v>
       </c>
     </row>
@@ -2858,11 +2690,11 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="C82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2314</v>
       </c>
     </row>
@@ -2871,11 +2703,11 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="C83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2357</v>
       </c>
     </row>
@@ -2884,11 +2716,11 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>342</v>
       </c>
       <c r="C84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2400</v>
       </c>
     </row>
@@ -2897,11 +2729,11 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>349</v>
       </c>
       <c r="C85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2444</v>
       </c>
     </row>
@@ -2910,11 +2742,11 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>355</v>
       </c>
       <c r="C86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2488</v>
       </c>
     </row>
@@ -2923,11 +2755,11 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>361</v>
       </c>
       <c r="C87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2532</v>
       </c>
     </row>
@@ -2936,11 +2768,11 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>368</v>
       </c>
       <c r="C88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2577</v>
       </c>
     </row>
@@ -2949,11 +2781,11 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>374</v>
       </c>
       <c r="C89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2622</v>
       </c>
     </row>
@@ -2962,11 +2794,11 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>381</v>
       </c>
       <c r="C90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2668</v>
       </c>
     </row>
@@ -2975,11 +2807,11 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>387</v>
       </c>
       <c r="C91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2713</v>
       </c>
     </row>
@@ -2988,11 +2820,11 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>394</v>
       </c>
       <c r="C92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2760</v>
       </c>
     </row>
@@ -3001,11 +2833,11 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="C93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2806</v>
       </c>
     </row>
@@ -3014,11 +2846,11 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>407</v>
       </c>
       <c r="C94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2853</v>
       </c>
     </row>
@@ -3027,11 +2859,11 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>414</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2900</v>
       </c>
     </row>
@@ -3040,11 +2872,11 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>421</v>
       </c>
       <c r="C96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2948</v>
       </c>
     </row>
@@ -3053,11 +2885,11 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>428</v>
       </c>
       <c r="C97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2996</v>
       </c>
     </row>
@@ -3066,11 +2898,11 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>434</v>
       </c>
       <c r="C98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3044</v>
       </c>
     </row>
@@ -3079,11 +2911,11 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>441</v>
       </c>
       <c r="C99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3093</v>
       </c>
     </row>
@@ -3092,11 +2924,11 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>448</v>
       </c>
       <c r="C100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3142</v>
       </c>
     </row>
@@ -3105,11 +2937,11 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>455</v>
       </c>
       <c r="C101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3191</v>
       </c>
     </row>
@@ -3118,11 +2950,11 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>463</v>
       </c>
       <c r="C102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3241</v>
       </c>
     </row>
@@ -3131,11 +2963,11 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>470</v>
       </c>
       <c r="C103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3291</v>
       </c>
     </row>
@@ -3144,11 +2976,11 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>477</v>
       </c>
       <c r="C104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3341</v>
       </c>
     </row>
@@ -3157,11 +2989,11 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>484</v>
       </c>
       <c r="C105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3392</v>
       </c>
     </row>
@@ -3170,11 +3002,11 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>491</v>
       </c>
       <c r="C106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3443</v>
       </c>
     </row>
@@ -3183,11 +3015,11 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>499</v>
       </c>
       <c r="C107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3495</v>
       </c>
     </row>
@@ -3196,11 +3028,11 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>506</v>
       </c>
       <c r="C108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3546</v>
       </c>
     </row>
@@ -3209,11 +3041,11 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>514</v>
       </c>
       <c r="C109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3599</v>
       </c>
     </row>
@@ -3222,11 +3054,11 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>521</v>
       </c>
       <c r="C110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3651</v>
       </c>
     </row>
@@ -3235,11 +3067,11 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>529</v>
       </c>
       <c r="C111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3704</v>
       </c>
     </row>
@@ -3248,11 +3080,11 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>536</v>
       </c>
       <c r="C112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3757</v>
       </c>
     </row>
@@ -3261,11 +3093,11 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
       <c r="C113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3811</v>
       </c>
     </row>
@@ -3274,11 +3106,11 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>552</v>
       </c>
       <c r="C114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3865</v>
       </c>
     </row>
@@ -3287,11 +3119,11 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>559</v>
       </c>
       <c r="C115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3919</v>
       </c>
     </row>

--- a/share/data/design/升级.xlsx
+++ b/share/data/design/升级.xlsx
@@ -740,7 +740,645 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>经验!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>经验</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>经验!$B$2:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1254</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1278</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0490-4DC9-9990-7083707C8A3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="415634304"/>
+        <c:axId val="415636800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="415634304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415636800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415636800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415634304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1296,6 +1934,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1323,6 +2477,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1621,7 +2805,7 @@
   <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1648,8 +2832,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>_xlfn.FLOOR.MATH(C2/7)</f>
-        <v>2</v>
+        <f>_xlfn.FLOOR.MATH(C2/7*(1.5+0.01*A2))</f>
+        <v>3</v>
       </c>
       <c r="C2">
         <f>_xlfn.FLOOR.MATH(A2*A2*0.1762 + 14.296*A2)</f>
@@ -1661,8 +2845,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">_xlfn.FLOOR.MATH(C3/7)</f>
-        <v>4</v>
+        <f t="shared" ref="B3:B66" si="0">_xlfn.FLOOR.MATH(C3/7*(1.5+0.01*A3))</f>
+        <v>6</v>
       </c>
       <c r="C3">
         <f>_xlfn.FLOOR.MATH(A3*A3*0.1762 + 14.296*A3)</f>
@@ -1675,7 +2859,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <f>_xlfn.FLOOR.MATH(A4*A4*0.1762 + 14.296*A4)</f>
@@ -1688,7 +2872,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="1">_xlfn.FLOOR.MATH(A5*A5*0.1762 + 14.296*A5)</f>
@@ -1701,7 +2885,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -1714,7 +2898,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -1727,7 +2911,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -1740,7 +2924,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -1754,7 +2938,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -1768,7 +2952,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -1781,7 +2965,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -1794,7 +2978,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -1807,7 +2991,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -1820,7 +3004,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -1833,7 +3017,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -1846,7 +3030,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -1859,7 +3043,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -1872,7 +3056,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -1885,7 +3069,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -1898,7 +3082,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -1911,7 +3095,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -1924,7 +3108,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -1937,7 +3121,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -1950,7 +3134,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -1963,7 +3147,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -1976,7 +3160,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -1989,7 +3173,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -2002,7 +3186,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -2015,7 +3199,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -2028,7 +3212,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -2041,7 +3225,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -2054,7 +3238,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -2067,7 +3251,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -2080,7 +3264,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -2093,7 +3277,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -2106,7 +3290,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -2119,7 +3303,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -2132,7 +3316,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -2145,7 +3329,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -2158,7 +3342,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -2171,7 +3355,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -2184,7 +3368,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -2197,7 +3381,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -2210,7 +3394,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -2223,7 +3407,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -2236,7 +3420,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -2249,7 +3433,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -2262,7 +3446,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -2275,7 +3459,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>319</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -2288,7 +3472,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -2301,7 +3485,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -2314,7 +3498,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>351</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -2327,7 +3511,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>363</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -2340,7 +3524,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>374</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -2353,7 +3537,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>386</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -2366,7 +3550,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>398</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -2379,7 +3563,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>410</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -2392,7 +3576,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>422</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -2405,7 +3589,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -2418,7 +3602,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>447</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -2431,7 +3615,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>460</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -2444,7 +3628,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>473</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -2457,7 +3641,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>486</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -2470,7 +3654,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>500</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -2483,7 +3667,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>513</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -2495,8 +3679,8 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B115" si="2">_xlfn.FLOOR.MATH(C67/7)</f>
-        <v>244</v>
+        <f t="shared" ref="B67:B115" si="2">_xlfn.FLOOR.MATH(C67/7*(1.5+0.01*A67))</f>
+        <v>527</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -2509,7 +3693,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>541</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -2522,7 +3706,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
-        <v>255</v>
+        <v>556</v>
       </c>
       <c r="C69">
         <f t="shared" ref="C69:C115" si="3">_xlfn.FLOOR.MATH(A69*A69*0.1762 + 14.296*A69)</f>
@@ -2535,7 +3719,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>570</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
@@ -2548,7 +3732,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
-        <v>266</v>
+        <v>585</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
@@ -2561,7 +3745,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
-        <v>271</v>
+        <v>600</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
@@ -2574,7 +3758,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
-        <v>277</v>
+        <v>615</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
@@ -2587,7 +3771,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>631</v>
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
@@ -2600,7 +3784,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>647</v>
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
@@ -2613,7 +3797,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>663</v>
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
@@ -2626,7 +3810,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>679</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
@@ -2639,7 +3823,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="2"/>
-        <v>306</v>
+        <v>695</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
@@ -2652,7 +3836,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>712</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
@@ -2665,7 +3849,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
-        <v>318</v>
+        <v>729</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
@@ -2678,7 +3862,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>746</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
@@ -2691,7 +3875,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
-        <v>330</v>
+        <v>763</v>
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
@@ -2704,7 +3888,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>781</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
@@ -2717,7 +3901,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>798</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
@@ -2730,7 +3914,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
-        <v>349</v>
+        <v>816</v>
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
@@ -2743,7 +3927,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>355</v>
+        <v>835</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
@@ -2756,7 +3940,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>853</v>
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
@@ -2769,7 +3953,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>368</v>
+        <v>872</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
@@ -2782,7 +3966,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>374</v>
+        <v>891</v>
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
@@ -2795,7 +3979,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>381</v>
+        <v>910</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
@@ -2808,7 +3992,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>387</v>
+        <v>930</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
@@ -2821,7 +4005,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>394</v>
+        <v>950</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
@@ -2834,7 +4018,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>970</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
@@ -2847,7 +4031,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>407</v>
+        <v>990</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
@@ -2860,7 +4044,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>414</v>
+        <v>1010</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
@@ -2873,7 +4057,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>421</v>
+        <v>1031</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
@@ -2886,7 +4070,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>428</v>
+        <v>1052</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
@@ -2899,7 +4083,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>434</v>
+        <v>1074</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
@@ -2912,7 +4096,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>441</v>
+        <v>1095</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
@@ -2925,7 +4109,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>448</v>
+        <v>1117</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
@@ -2938,7 +4122,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>455</v>
+        <v>1139</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
@@ -2951,7 +4135,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>463</v>
+        <v>1162</v>
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
@@ -2964,7 +4148,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>470</v>
+        <v>1184</v>
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
@@ -2977,7 +4161,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>477</v>
+        <v>1207</v>
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
@@ -2990,7 +4174,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>484</v>
+        <v>1230</v>
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
@@ -3003,7 +4187,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>491</v>
+        <v>1254</v>
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
@@ -3016,7 +4200,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>499</v>
+        <v>1278</v>
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
@@ -3029,7 +4213,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>506</v>
+        <v>1301</v>
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
@@ -3042,7 +4226,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>514</v>
+        <v>1326</v>
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
@@ -3055,7 +4239,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>521</v>
+        <v>1350</v>
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
@@ -3068,7 +4252,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>529</v>
+        <v>1375</v>
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
@@ -3081,7 +4265,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>536</v>
+        <v>1400</v>
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
@@ -3094,7 +4278,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>544</v>
+        <v>1426</v>
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
@@ -3107,7 +4291,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>552</v>
+        <v>1452</v>
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
@@ -3120,7 +4304,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>559</v>
+        <v>1478</v>
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
